--- a/deuChatbot/research_result/results/sem_score/sem_version_2(2500_500).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_2(2500_500).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6145,61 +6145,3462 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 분야에서 진행되며, 각 분야는 다른 종목을 준비해야 합니다. 여기서 디자인조형학과의 실기시험에 대해 자세히 설명드리겠습니다:
+### 1. 모집단위 및 종목
+- **모집단위**: 시각디자인 / 산업디자인 / 공예디자인 중 선택
+- **종목**:
+  - **기초디자인**
+  - **사고의 전환**
+### 2. 준비물
+- 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+### 3. 실기주제 및 화지크기
+- **기초디자인**:
+  - **실기주제**: 주제A와 주제B에서 각각 1개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다.
+    - 예시: 잠자리와 저울, 악보와 계절 등
+  - **화지크기**: 켄트지3절
+  - **시간**: 5시간
+- **사고의 전환**:
+  - **실기주제**: 주제A와 주제B에서 각각 1개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다.
+    - 예시: 콜라병과 계절, 마스크와 자유 등
+  - **화지크기**: 켄트지2절
+  - **시간**: 5시간
+### 4. 평가 기준 및 배점
+- **기초디자인**:
+  - **배점**: 700점 (70%)
+- **사고의 전환**:
+  - **배점**: 700점 (70%)
+### 5. 주요 요구사항
+- 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+- 제공된 사물은 모두 1회 이상 표현해야 합니다.
+- 제공된 사물의 색상은 변경하지 마세요.
+이러한 정보를 바탕으로, 디자인조형학과의 실기시험 준비는 주제에 대한 창의적인 접근과 표현 능력을 키우는 데 중점을 두어야 합니다. 다양한 주제와 환경을 통해 자신의 창의성을 발휘하고, 제공된 사물들을 효과적으로 활용하여 작품을 완성하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7967973747849464</v>
+        <v>0.7945734262466431</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+1. **실기종목**:
+   - 기초디자인
+   - 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+4. **화지크기**:
+   - 켄트지3절
+5. **시험기간**:
+   - 5시간
+주제는 주제A와 주제B에서 각각 하나씩 선택하여 연결된 주제로 당일 추첨을 통해 결정됩니다. 제공된 사물과 이미지 이외의 형상은 표현하지 말아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 제공된 사물의 색상 변경도 금지되어 있습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7755482435226441</v>
+        <v>0.9309059381484985</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에서는 다음과 같은 대회들을 인정합니다:
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - various international competitions (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 상위권 입상자들은 경기실적을 인정받아 지원에 유리하게 작용합니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.6686219573020935</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+두 가지 주제 중에서 각각 하나를 선택하여 연결된 주제로 만듭니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9719290733337402</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+특히 나군 학생부교과(평생학습자전형)와 같은 경우, 출결 점수가 0%로 표시되어 있습니다. 이는 출결이 학생부교과 전형에서 중요한 평가 요소로 반영되지 않는 것을 의미합니다.
+만약 다른 특정 전형이나 모집단위에서 출결 점수가 반영되는 경우에는 해당 정보를 확인하기 위해 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5196312069892883</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>45명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45이며, &lt;가군&gt;의 일반 학생은 17이며..."</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.846223771572113</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직은 다음과 같이 기재되어 있습니다:
+- 단과대학: 인문사회과학대학
+- 계열: 인문사회
+- 모집단위: 영어영문학과 - 교직
+- 모집인원: 28</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.8176763653755188</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 나군 일반 학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.9716888666152954</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照英语等级对应的分数：
+- 等级1，分数139
+- 等级2，分数131
+- 等级3，分数123
+- 等级4，分数115
+- 等级5，分数107
+- 等级6，分数99
+- 等级7，分数91
+- 等级8，分数83
+- 等级9，分数75</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5564359426498413</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 
+관련 정보:
+- 나군 학생부교과(농어촌학생전형)의 고교유형별 지원자격에서 특수목적고의 예술고는 지원 가능합니다.
+- 예를 들어, "나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원" 섹션에서는 예술고가 지원 가능한 대상으로 명시되어 있습니다.
+따라서 예술고 출신의 학생은 나군 농어촌학생전형을 통해 해당 대학에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9433486461639404</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 여자 레저스포츠학과 제자리 멀리뛰기 기록은 268～271cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.762082576751709</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 전형요소 반영비율에서 다군 실기/실적(일반학생전형) 경기지도학과로 해당됩니다.
+출결 반영 비율은 **12%**입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.8941819667816162</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9864264130592346</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **모집단위**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- **실기종목**: 기초디자인, 사고의 전환
+- **배점 비율**: 각 실기종목이 700점(70%)으로 배점됨
+참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.7562833428382874</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体招生简章或最低录取标准。根据您提供的内容，大多数专业的最低录取标准显示为“水能最低标准无”，这意味着这些专业在2024年的招生中可能没有设定特定的最低分数要求。
+如果您需要了解东义大学2024学年应用化学专业的具体最低录取标准，请访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章或直接联系学校的招生办公室获取详细信息。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.294958233833313</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같은 것들이 있습니다:
+1. 아동학과 (보육·가정상담학과에서 변경)
+2. 심리학과 
+3. 스마트항만물류학과
+4. 창업투자경영학과
+5. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 동의대학교에서는 여러 학과가 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9272580146789551</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9566861391067505</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 수학(미적분/기하) 응시자에게 수능 가산점을 부여합니다. 이 가산점은 특정 학과에 한정되지 않고, 전 모집단위에서 적용됩니다.
+수능 가산점이 적용되는 세부 조건은 다음과 같습니다:
+- 모집단위: 모든 모집단위 (디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외)
+- 수능 반영 영역: 국어(화법과작문 or 언어와매체), 수학 (미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 - 2개 과목 합) 
+- 가산점 비율: 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여
+따라서, 동의대학교에서는 전반적으로 수능 성적이 중요한 평가 기준이지만, 특정 학과에서는 수학 성적이 더 큰 영향을 미칠 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.7048175930976868</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. **반영 영역**:
+   - 국어 (화법과작문 또는 언어와매체)
+   - 수학 (확률과통계 또는 미적분 또는 기하)
+   - 영어
+   - 탐구 (사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목)
+2. **반영 비율**:
+   - 각 영역별로 25%씩 반영됩니다.
+3. **가산점**:
+   - 가산점이 없습니다.
+따라서, 수능 성적은 국어, 수학, 영어, 탐구 중 선택한 2개 과목의 점수를 각각 25%씩 합산하여 최종 점수로 산출됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8886712789535522</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다. 
+이 날짜는 레저스포츠학과와 태권도학과에서 실시되는 실기고사의 날짜입니다.
+참고로, 다른 학과들의 실기고사는 다음과 같습니다:
+- 레저스포츠학과: 2024년 1월 16일(화) 제자리 멀리뛰기와 Z-런
+- 태권도학과: 2024년 1월 16일(화) 품새, 시범, 겨루기 중 선택
+이 정보는 제공된 전형일정 내용을 바탕으로 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.8466891050338745</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기/실적 전형으로 모집되므로 제외됩니다. 
+이러한 결론은 다음과 같은 정보에서 도출되었습니다:
+- 나군 실기/실적(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 모집단위로 포함되어 있습니다.
+- 나군 수능(일반학생전형)에서는 이들 학과는 제외되고 일반 수험생들이 해당 전형을 통해 지원합니다.
+따라서 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9625130891799927</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+- 다군 수능(일반학생전형) 전 모집단위에 대한 정보에서, 
+- "수능최저기준" 항목은 "수능최저기준 없음"으로 표시되어 있습니다.
+따라서 동의대학교 2024학년도 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8483859300613403</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 여러 학과가 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9904575347900391</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서 접수(인터넷)의 마감일은 2024년 1월 6일(토)까지이며, 접수 마감 시간은 18시까지입니다.
+따라서 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9314818382263184</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **학생부종합 평가영역**:
+   - 2023년도: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - 2024년도: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+2. **전형요소 반영비율**:
+   - **학생부 교과**:
+     - 2023년도: 8과목 (국어, 수학, 영어교과 중 석차등급 상위 8과목 4과목 포함)
+     - 2024년도: 12과목 (전체 모집단위에서 한의예과 제외)
+   - **출결**:
+     - 2023년도: 7%
+     - 2024년도: 12%
+   - **서류**:
+     - 2023년도: 63%
+     - 2024년도: 70%
+   - **면접**:
+     - 2023년도: 20%
+     - 2024년도: 18%
+   - **실기**:
+     - 2023년도: 5%
+     - 2024년도: 0%
+   - **수능**:
+     - 2023년도: 70%
+     - 2024년도: 30%
+3. **전형요소 반영비율(%)**:
+   - **학생부 교과**: 
+     - 2023년도: 8%
+     - 2024년도: 10%
+   - **출결**: 
+     - 2023년도: 7%
+     - 2024년도: 12%
+   - **서류**:
+     - 2023년도: 63%
+     - 2024년도: 70%
+   - **면접**: 
+     - 2023년도: 20%
+     - 2024년도: 18%
+   - **실기**:
+     - 2023년도: 5%
+     - 2024년도: 0%
+   - **수능**: 
+     - 2023년도: 70%
+     - 2024년도: 30%
+이러한 변경사항들은 학생부와 서류의 비중을 높이고, 수능 점수의 비중을 낮추는 방향으로 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.9630927443504333</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용에 따르면, 가군 실기/실적(일반학생전형)의 모집단위인 레저스포츠학과와 태권도학과에서는 수능이 30%이고, 실기가 70%입니다.
+따라서 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 부분은 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9197571277618408</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래 사회의 변화와 맞물려 다양한 삶의 질 향상을 위한 교육과 연구를 목표로 하고 있습니다. 세부 전공별로 각각 다음과 같은 특성을 가지고 있겠습니다:
+1. 스타트업창업투자학:
+- 창업 및 투자에 대한 이론과 실무 지식을 배우는 전공
+- 기업 설립부터 성장까지의 과정을 체계적으로 이해할 수 있는 교육
+2. 뷰티비즈니스학:  
+- 뷰티 산업의 트렌드와 비즈니스 모델에 대한 지식 습득
+- 뷰티 제품 개발부터 마케팅 전략까지 종합적인 역량 키우기
+3. 라이프생활문화학:
+- 현대인의 생활 질 향상을 위한 다양한 분야 연구
+- 문화, 건강, 환경 등과 연계된 삶의 질 개선 방안 탐구
+이 세부 전공들은 학생들이 미래 사회에서 요구되는 다양한 역량을 갖추고, 라이프스타일 관련 산업에 종사할 수 있도록 교육하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9508883953094482</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군 실기/실적(일반학생전형))
+2. 태권도학과 (가군 실기/실적(일반학생전형))
+이 두 학과에서 실기고사가 진행되며, 각각의 합격자는 해당 학과에 입학하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9540991187095642</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+이 두 학과에서 실기/실적 위주 전형이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9515003561973572</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 세 가지 전공을 제공합니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이러한 신설 전공들은 미래 사회에서 요구되는 다양한 산업 분야에 대한 교육을 제공하고, 학생들이 실용적인 기술과 지식을 습득할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5970107913017273</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊目的高中（如艺术高中、体育高中等）的学生，并且符合以下条件之一，则可以申请东义大学的一般学生入学：
+1. 特殊目的高中的科学高中、国际高中或外语高中：需要完成特设课程或一年以上的职业教育训练。
+2. 特殊目的高中的艺术高中或体育高中：需要完成特设课程或一年以上的职业教育训练。
+3. 特殊目的高中中的马士塔高中（Mistra High School）：可以申请。
+因此，如果你是特殊目的高中（如艺术高中、体育高中等），并且完成了相应的特设课程或一年以上的职业教育训练，则你可以申请东义大学的一般学生入学。请确认你所在的高中是否属于上述类别，并且是否满足完成相应课程的要求。如果有疑问，建议访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多信息或直接咨询学校招生办公室。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3280472755432129</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보면, 다음과 같은 학과들이 많은 정원을 모집하고 있습니다:
+1. **경영정보학과** - 정원 내 모집 인원이 60명입니다.
+2. **회계학과 - 교직** - 정원 내 모집 인원이 60명입니다.
+3. **국어국문학과 - 교직** - 정원 내 모집인원이 45명입니다.
+4. **중어중국학과 - 교직** - 정원 내 모집 인원이 46명입니다.
+이 중에서 가장 많은 정원을 모집하는 학과는 **경영정보학과**와 **회계학과 - 교직**으로, 각각 60명씩 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9271212220191956</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且满足以下条件之一，则有可能符合东义大学学生部课程（농어촌학생전형）的申请资格：
+1. **6年制**：
+   - 在农村（邑·面）地区中学和高中期间，你本人及父母双方均在该地区居住。
+2. **12年制**：
+   - 无论父母是否在农村地区居住，你在整个基础教育阶段（小学入学日到高中毕业日之间）都在农村地区的学校就读并居住。
+如果满足上述条件之一，则你可以申请东义大学的学生部课程。请确保你准备了所有必要的申请材料，并仔细检查你的个人信息和学历背景以符合要求。具体申请流程和所需文件可以在东义大学的官方网站上找到详细说明，建议访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取最新信息。
+如果你需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.5016308426856995</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균을 종합해보면 다음과 같습니다:
+- **최초합격자**: 317.87
+- **최종등록자**: 434.70
+따라서, 두 시기의 평균을 함께 고려할 때, 소프트웨어공학부 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **376.285**입니다.
+이 값은 최초합격자와 최종등록자를 각각 1:1로 가중평균한 것으로, 두 시기의 데이터를 종합적으로 반영한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7723841667175293</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8374373912811279</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정에 따르면, &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군의 최초 합격자는 2024년 2월 2일(금) 14:00에 발표됩니다. 
+추가적으로, 충원 합격자 발표 및 등록 일정은 다음과 같습니다:
+- 2차 충원 합격자 발표는 2024년 2월 14일(수) 09:00입니다.
+- 2차 충원 합격자 등록은 2024년 2월 14일(수) 09:00~16:00까지 진행됩니다.
+추가적인 정보는 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.9719913005828857</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 2월 7일부터 13일까지 합격자 등록이 이루어집니다. 이 기간 동안 합격자들은 등록금을 납부하고 입학하는 과정에 참여합니다.
+면접고사는 이전에 언급된 일정과는 별도로 진행되며, 정확한 면접일자는 다음과 같습니다:
+- 2024년 2월 2일 금요일 14:00 이후, 입학 안내 홈페이지에서 대기실 및 입실 시간 안내를 확인할 수 있습니다.
+- 면접은 개별적으로 진행되며, 각 지원자에게는 1인당 10분 이내로 할당됩니다.
+따라서 면접을 보러 가는 시기는 2월 2일 이후 입학 안내 홈페이지에서 공지된 대기실 및 입실 시간에 따라 이루어집니다. 정확한 날짜와 시간은 입학 안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7716401815414429</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과의 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 한의예과의 경우 고등학교 졸업 자격이 필요하지만, 각 대학마다 정확한 최저학력기준은 다를 수 있습니다.
+2024학년도에 대한 특정한 변경사항이나 추가 조건이 있다면 해당 정보가 제공되었어야 합니다. 일반적인 입시 기준을 따르면 다음과 같은 점들이 주요할 수 있습니다:
+1. 고등학교 졸업 자격
+2. 일부 대학에서는 특정 과목 성적의 최저 기준 (예: 국어, 수학 등)
+3. 다른 학과와 마찬가지로 수능 최저점수 요구
+정확한 정보를 얻기 위해서는 해당 대학의 공식 입시 안내서나 홈페이지를 참조하거나, 입학처에 직접 문의하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5899394154548645</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 대부분의 전형에서는 수능 최저학력 기준이 없습니다. 
+특히 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+- 가군 수능(일반학생전형)에서는 수능최저기준 없음으로 표시되어 있습니다.
+- 나군 수능(일반학생전형)에서도 마찬가지로 수능최저기준 없음으로 표시되어 있습니다.
+따라서, 주어진 정보에 따르면 정시 모집에서 대부분의 전형에서는 수능 최저학력 기준이 없습니다. 하지만 특정 전형이나 학과에서 추가적인 수능 최저학력 기준을 설정할 수도 있으므로, 공식 입학 안내 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 확인하시거나 대학에 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.5677567720413208</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도의 충원합격자 발표 일정은 다음과 같습니다:
+- **가군**: 2024. 02. 15.(목) 09:00
+- **나군**: 2024. 02. 15.(목) 09:00
+이 날짜에 충원합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9311252236366272</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도의 추가합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서 추가합격자 발표는 2월 14일과 15일에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9785035848617554</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로 추가 모집 여부에 대한 명확한 답변을 드리기는 어렵습니다. 추가 모집이 있는지 확인하려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 정보를 확인하는 것이 가장 정확할 것입니다. 사이트에서 공식 입학 안내나 모집요강을 확인하시면 추가 모집 여부와 관련된 자세한 내용을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.6271600723266602</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학에서 평생교육을 받은 학습자들을 대상으로 하는 입학 전형입니다. 이 전형에는 다양한 형태가 있으며, 주요 내용은 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 미래융합대학 라이프융합학부: 38명 (11명 + 23명 + 7명 + 17명)
+   - 미래융합대학 부동산자산경영학부: 24명 (7명 + 17명)
+2. 지원자격:
+   - 산업체 적용범위: 
+     1) 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+     2) 근로기준법 제11조에 의거 상시근로자 5인 이상 사업체
+     3) 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+3. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류:
+   - 고교 졸업(예정)자: 고교 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서 사본, 성적증명서
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서
+5. 동점자 처리기준:
+   - 순위 1: 면접고사 성적 상위자
+   - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+   - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 학습자는 해당 조건을 충족시키고 필요한 서류를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.8373387455940247</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고), 특수목적고(예술고, 체육고), 특수목적고(마이스터고), 특성화고의 특성(직업), 특성화고의 특성(대안), 영재학교, 기타의 학력인정고, 기타의 방송통신고, 기타의 각종학교는 지원 가능합니다.
+2. 검정고시와 외국고는 지원 불가능합니다.
+따라서 평생학습자전형에서는 대부분의 고교 유형이 지원 가능하지만, 검정고시와 외국고는 지원을 받을 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7748837471008301</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)과 2024년 1월 17일(수)에 실기고사가 진행됩니다. 
+- 2024년 1월 16일(화): 레저스포츠학과와 태권도학과
+- 2024년 1월 17일(수): 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과
+대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.8788430690765381</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 곳에서 진행됩니다:
+1. **제자리 멀리뛰기**
+   - 배점(비율): 240점 (24%)
+2. **메디신볼 던지기**
+   - 배점(비율): 243점 (23%)
+3. **Z-런**
+   - 배점(비율): 230점 (23%)
+각 실기종목은 별도의 준비물과 시간이 지정되어 있습니다:
+- **제자리 멀리뛰기**:
+  - 화지 크기: 켄트지3절
+  - 시간: 5시간
+- **메디신볼 던지기**:
+  - 화지 크기: 켄트지2절
+  - 시간: 5시간
+- **Z-런**:
+  - 배점(비율): 230점 (23%)
+각 실기종목은 별도의 기록별 배점표가 있으며, 등급과 각 항목의 점수 범위가 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.4321316480636597</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원 합격자 발표 후에 전화 통보 여부는 공식 안내에서 명확히 언급되어 있지 않습니다. 일반적으로 합격자 발표 이후에는 합격자들의 등록금 납부 등의 절차가 진행되며, 추가적인 전화 통보는 드물게 이루어집니다.
+만약 합격자 발표 후에도 학교 측으로부터 전화를 받지 못했다면, 학교 입학처 웹사이트나 공지사항을 확인하거나 직접 연락하여 확인하는 것이 좋습니다. 특히 충원 합격자 발표일이 다가올 때는 학교의 공식 안내를 주시하고, 필요하다면 문의해보는 것이 좋습니다.
+관련 링크: [입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)
+만약 추가 정보가 필요하거나 다른 질문이 있다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7054886221885681</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집인원 및 지원자 수와 관련된 통계가 포함되어 있으므로, 이와 유사한 패턴을 가정할 수 있습니다.
+예를 들어, 2024학년도 경찰행정학과의 정보는 다음과 같습니다:
+- 모집 인원: 7명
+- 지원 인원: 29명
+- 경쟁률: 4.14
+이와 유사한 패턴을 가정하면, 2023학년도 경찰행정학과의 수시모집 결과는 다음과 같았을 가능성이 높습니다:
+- 모집 인원: 7명
+- 지원 인원: 약 29명 (경쟁률이 비슷한 경우)
+- 경쟁률: 약 4.14
+정확한 데이터를 확인하려면, 해당 대학의 입학처 웹사이트 또는 공식 안내서를 참조하시거나, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 최신 정보를 확인하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.8132485747337341</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 일부 전형에서 수능 응시를 필수로 하지 않는 경우가 있습니다. 예를 들어, 나군 학생부종합(조기취업형계약학과전형), 나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형) 등은 수능 응시가 아닌 다른 자격 요건을 충족하면 지원할 수 있습니다.
+특히, 나군 학생부종합(조기취업형계약학과전형), 나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형) 등은 다음과 같은 자격 요건을 충족하면 수능 응시 없이 지원할 수 있습니다:
+1. **나군 학생부종합(조기취업형계약학과전형)**: 재직자 또는 특성화고 교육과정 또는 1년 이상의 직업교육훈련 과정을 이수한 자 등.
+2. **나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자, 재직자 등.
+따라서 수능 응시를 하지 않더라도 특정 전형에서는 지원이 가능합니다. 하지만 일반적으로 대부분의 전형은 수능 점수를 반영하므로, 수능을 준비하는 것이 유리할 수 있습니다. 자세한 내용은 입학 안내 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.5658409595489502</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년이 지났다면 정시모집의 경우 지원이 어렵습니다. 대부분의 대학은 고등학교 졸업 예정자 또는 검정고시 합격자를 대상으로 모집을 진행합니다.
+하지만, 일부 특별한 전형이 있을 수 있습니다:
+1. **나군 학생부종합(평생학습자전형/성인학습자전형)**: 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 따라서, 10년이 지났다면 이 전형을 검토해볼 수 있습니다.
+2. **나군 학생부종합(조기취업형계약학과전형)**: 이 전형도 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+3. **다군 수능(일반학생전형)**: 이 전형은 일반적으로 고등학교 졸업 예정자나 검정고시 합격자를 대상으로 하지만, 일부 특수목적고교나 기타 학력인정고를 졸업한 자도 지원이 가능할 수 있습니다.
+따라서, 정확한 지원 가능 여부는 해당 대학의 2024학년도 입시 안내를 확인해야 합니다. 특히 나군 학생부종합(평생학습자전형/성인학습자전형)과 같은 전형을 주목해볼 필요가 있습니다.
+추가 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나, 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.7280993461608887</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학 안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 참고: 서류 제출 대상은 전형별 세부 안내를 참조해야 합니다. 제출 방법은 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편발송이 가능합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 참고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 참고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 참고: *발표: 홈페이지에서 개별 조회*  
+           *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+           *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 참고: 동일한 내용
+   - 충원 합격자 발표 및 등록:
+     - 1차: 2024년 2월 14일 (수) 09:00
+       - 참고: 동일한 내용
+     - 2차: 2024년 2월 15일 (목) 09:00 ~ 16:00
+       - 참고: 동일한 내용
+   - 3차 이후 합격자 발표 및 등록:
+     - 날짜: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+       - 참고: 동일한 내용
+이 일정은 일반적인 정시 모집 일정이며, 각 전형별 세부 안내를 확인하시려면 입학 안내 홈페이지를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.98719322681427</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 이날 입학 안내 홈페이지에서 모집인원이 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감 시간은 각각 해당 날짜의 오후 6시까지
+   - 원서 접수는 인터넷을 통해 진행되며, 접수 마감 시간이 있습니다.
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감 시간은 각각 해당 날짜의 오후 5시까지 도착
+   - 서류 제출 대상자는 입학 안내 홈페이지에서 확인 가능하며, 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다.
+4. **실기고사**:
+   - **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+     - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+   - **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+     - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **합격자 발표 및 등록**:
+   - **최초 합격자 발표**: 2024년 2월 2일 (금), 오후 2시
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감 시간 내
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+   - **충원 합격자 발표 및 등록**:
+     - 1차: 2024년 2월 14일 (수), 오전 9시
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 1차: 2024년 2월 14일 (수), 오전 9시 ~ 오후 4시
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 2차: 2024년 2월 15일 (목), 오전 9시
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 2차: 2024년 2월 15일 (목), 오전 9시 ~ 오후 4시
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 3차 이후: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 3차 이후: 개별 전화 통보 시 안내
+이 일정은 일반적인 정시모집 일정이며, 각 모집단위와 계열에 따라 세부 내용이 다를 수 있으므로 공식 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.8973070383071899</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 주로 실기/실적 위주 전형과 일부 학생부 종합전형으로 확인됩니다.
+1. **가군 실기/실적(일반학생전형)**:
+   - 레저스포츠학과, 태권도학과
+   - 이 전형은 수능 미응시자도 지원이 가능합니다.
+   - 실기 성적이 주요 평가 요소로 반영됩니다.
+2. **나군 학생부종합(조기취업형계약학과전형)**:
+   - 이 전형은 수능 미응시자도 지원이 가능하며, 주로 면접과 서류 평가를 통해 선발합니다.
+   - 실적 및 학교생활 기록부 등 다양한 자료를 종합적으로 평가합니다.
+3. **나군 학생부종합(평생학습자전형)**:
+   - 이 전형도 수능 미응시자 지원이 가능하며, 주로 학교생활기록부와 면접을 통해 선발합니다.
+   - 실적 및 학업 역량 등을 종합적으로 평가합니다.
+따라서 수능 미응시자도 동의대학교 정시모집에서 지원 가능한 전형은 **실기/실적 위주 전형**과 **학생부 종합전형**이 주로 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6187216639518738</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 34명이며, 이는 단일 차수에서 이루어진 것으로 보입니다. 
+단, 전년도(2023년도)에 대한 구체적인 데이터가 제공되지 않았기 때문에, 정확한 전년도 충원 합격 차수를 말씀드릴 수 없습니다. 만약 더 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.8391743302345276</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。如果您需要这个信息，建议您访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do），通常学校官网会有联系方式页面。或者您可以直接联系学校的招生办公室或入学咨询部门获取准确的联系电话。
+如果需要进一步的帮助，请告诉我具体查询哪个学院或专业的相关信息，我可以帮助您查找更多详细信息。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.4177752435207367</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 20일(화) 18시까지는 합격자 발표 및 등록금 납부를 위한 3차 충원합격자의 개별 전화 통보 기간입니다. 만약 이 기간 동안 전화 통화가 되지 않는 경우, 다음과 같은 절차로 처리됩니다:
+1. **홈페이지에서 개별 조회**: 합격자 발표는 홈페이지에서 개별적으로 확인할 수 있습니다.
+2. **고지서 교부**: 고지서를 홈페이지에서 출력하거나 입학관리팀에서 받을 수 있습니다.
+3. **등록장소**: 등록 장소는 학교 지정은행으로, 등록금 고지서에 기재되어 있습니다.
+따라서 전화 통화가 되지 않더라도, 위의 방법들을 통해 합격 사실과 관련 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9104401469230652</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. **6년 과정 유형**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자)
+2. **12년 과정 유형**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자)
+3. **최종 등록자 추가 제출서류**
+   - 고교 졸업증명서
+   - 지원자 본인, 부모의 초본 각 1부 (총 3부) 또는 부모 중 한 명만의 초본 1부
+이러한 서류들은 농어촌 지역에 거주하며 해당 조건을 충족하는 자에게 필수적으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9296500086784363</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   ※ 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출 가능
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류들은 지원자의 학력과 농어촌 거주 경력을 입증하기 위해 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9506908059120178</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年招生中的低收入机会均等（Low-Income Equal Opportunity）类型的单独招生计划。因此，根据现有信息无法确定是否取消了该类型招生。
+如果您需要更准确的信息，建议直接访问学校官网 https://ipsi.deu.ac.kr/main.do 或者联系学校的招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.4387498199939728</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급점수로 표현할 때 100.5점으로 처리됩니다. 수능 최저등급에서 사탐 2과목 평균산출을 할 때 절사법이 적용되지 않고, 실수점수를 그대로 반영합니다.
+따라서 2.5등급은 100.5점을 기준으로 평균산출이 이루어집니다. 예를 들어 두 과목 중 하나가 2.5등급이고 다른 과목이 3등급이라면, 각각의 점수는 100.5점과 108점이며, 이들의 평균은 (100.5 + 108) / 2 = 104.25점으로 반영됩니다.
+따라서 2.5등급은 그대로 반영되며 절사되는 경우는 없습니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.7154001593589783</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 정시 모집에서 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024년 2월 14일 (수) 09:00
+   - 내용: 1차 충원 합격자 발표와 등록
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024년 2월 15일 (목) 09:00
+   - 내용: 2차 충원 합격자 발표와 등록
+3. **3차 이후 충원 합격자 발표 및 등록**:
+   - 일정: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - 내용: 3차 이후 충원 합격자 발표와 등록
+이러한 일정은 각 차례별로 홈페이지에서 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정 은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.8772263526916504</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에서 e비즈니스학과의 경쟁률은 10.56이며, 최종 등록자의 평균 수능 점수는 313.13입니다. 이에 비해 4.6이라는 점수는 상대적으로 낮습니다.
+e비즈니스학과의 경우, 모집인원은 9명이고 지원 인원이 95명으로 많은 경쟁을 겪고 있습니다. 평균 수능 점수가 313.13이며, 표준 편차가 5.75라는 것을 고려하면, 4.6이라는 점수는 상당히 낮은 수준입니다.
+따라서, 4.6의 점수로 정시 전형으로 추가 합격하기 위해서는 다음과 같은 요인들을 고려해야 합니다:
+1. **개별 지원자의 경쟁력**: 다른 지원자들의 성적과 비교하여 자신의 위치를 파악해야 합니다.
+2. **면접 및 서류 평가**: 면접이나 서류평가에서 좋은 점수를 받는 것이 중요합니다.
+3. **전형 요소의 균형**: 수능 점수가 낮더라도 다른 전형요소(면접, 학업역량 등)에서 높은 점수를 얻어야 합니다.
+따라서, 4.6이라는 점수로 정시 전형으로 추가 합격하기는 어렵다고 볼 수 있습니다. 그러나 최선을 다해 준비하고, 면접이나 서류평가에서 좋은 성적을 받으면 가능성을 높일 수 있을 것입니다.
+추가적으로, 입학사정관의 평가와 지원자의 전반적인 역량을 고려할 때, 4.6이라는 점수로도 합격 가능성은 열려 있습니다만, 확실한 것은 아닙니다. 따라서, 정확한 판단을 위해서는 해당 대학의 입학 사정관이나 관련 웹사이트를 참조하는 것이 좋습니다.
+추가 정보나 자세한 조언이 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.8156744241714478</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 상경대학 e비즈니스학과의 경쟁률과 평균 점수를 고려해보겠습니다.
+- 모집 인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.20
+- 수능 4개 영역 등급의 평균: 4.17
+이 데이터를 바탕으로, 정시 등급 5.3은 수능 4개 영역 등급의 평균보다 약간 높습니다 (5.3 &gt; 4.17). 그러나 경쟁률이 매우 높고 지원자가 많아서 단순히 등급만으로 최초 합격을 보장할 수는 없습니다.
+평균 등급이 4.17인 반면, 정시 등급 5.3은 상당한 우위를 가집니다. 그러나 다음과 같은 요소들을 고려해야 합니다:
+1. **전체 지원자들의 성적 분포**: 평균보다 높은 점수를 받은 지원자가 얼마나 되는지 확인해야 합니다.
+2. **등급의 일관성**: 등급이 5.3이라면, 이 수치가 꾸준히 유지되는지 확인해야 합니다 (예: 모든 영역에서 5 이상).
+3. **추천서 및 자기소개서 등의 서류 평가**: 일부 학과에서는 서류 평가가 중요한 역할을 하므로, 이 부분도 고려해야 합니다.
+4. **면접 성적**: 면접에서도 좋은 점수를 받는 것이 중요합니다.
+따라서 정시 등급 5.3은 상대적으로 높은 점수이지만, 경쟁률과 지원자의 수가 매우 많아 최초 합격을 보장할 수는 없습니다. 그러나 충분히 좋은 성적을 가지고 있으므로, 최소한 후보순위 내에 들어가는 것은 가능성이 있습니다.
+결론적으로, 정시 등급 5.3은 e비즈니스학과 최초 합격 가능성은 있지만, 확실하지 않습니다. 추가적인 정보와 지원자의 전반적인 경쟁력을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.8259672522544861</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑多个因素。首先，您需要查看具体的录取标准和往年数据来确定您的成绩是否符合要求。以下是一些关键点：
+1. **综合评价**：根据提供的信息，e비즈니스학전공的招生方式包括学生部综合（平生学習者型）等。
+2. **成绩分布**：
+   - 从您提供的数据来看，e비즈니스學科在2024年有15个名额，报名人数为89人。
+   - 平均标准转换总分是426.25，标准差是14.02。
+3. **您的成绩**：
+   - 如果您能提供具体的国语、数学和选修科目（2科）的标准转换分数，我们可以进行更准确的评估。
+   - 例如，如果您的标准转换总分接近或超过426.25，并且在其他方面表现良好，那么预录取的可能性较大。
+4. **其他因素**：
+   - 面试成绩：面试通常占一定比例（如30%），您需要准备充分。
+   - 个人陈述和推荐信等软性材料也很重要。
+建议步骤如下：
+1. **确认具体分数**：提供具体的国语、数学和选修科目的标准转换分数，以便进行更准确的评估。
+2. **参考往年数据**：查看往年的录取分数线和成绩分布情况。
+3. **准备面试**：根据提供的面试问题（如支持动机及学业计划等），做好充分准备。
+如果您能提供更多具体信息，我可以帮助您进行更详细的分析。建议直接访问学校官网或联系招生办公室获取最新、最准确的信息。如果需要进一步的帮助，请告诉我您的具体分数和其他相关信息。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.4960646033287048</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 수능 영어 등급은 상대적으로 낮은 점수입니다. 동의대학교 간호학과는 경쟁률이 높고, 지원자들의 평균적인 수능 성적이 높은 편입니다.
+2024학년도 간호학과의 지원자들의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 357.63이며, 표준 편차는 5.37입니다. 이와 비교해보면, 3.44라는 점수가 평균보다 약간 낮습니다.
+그러나 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. **학생부 성적**: 간호학과에서는 학생부 성적이 중요한 역할을 합니다. 좋은 학업태도와 성취를 보여주는 학생부가 있다면 이는 긍정적인 점수입니다.
+2. **면접 결과**: 면접에서도 좋은 평점을 받으면 합격 가능성은 높아집니다.
+3. **추천서 및 기타 자료**: 추천서나 다른 지원자료에서 긍정적인 평가를 받는다면 이 또한 도움이 될 수 있습니다.
+4. **경쟁률**: 현재의 경쟁률과 지원자의 수준을 고려할 때, 3.44라는 점수로 합격하기는 어렵지만, 여전히 가능성이 있습니다.
+따라서, 단순히 수능 성적만으로 판단하기보다는 전체적인 지원 자료를 종합적으로 평가해야 합니다. 만약 확신이 없다면, 동의대학교 입학처에 문의하거나 추가 정보를 얻어보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.8022193908691406</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 수능 등급으로 보이는데, 동의대학교 간호학과의 경우 일반학생전형에서 수능 등급 기준이 상당히 높습니다. 간호학과의 경우 주로 3등급 이상을 요구하는 경향이 있습니다.
+현재 제공된 정보만으로는 정확한 답변을 드리기 어렵지만, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 등급 평균**: 간호학과의 최종 합격자들의 수능 등급 평균은 3.37 (2024학년도)입니다.
+2. **경쟁률**: 간호학과는 매우 높은 경쟁률을 보여, 많은 지원자가 있습니다.
+따라서 2.52라는 점수로는 최종 합격하기 어렵다고 추정됩니다. 하지만 다음과 같은 방법들을 통해 기회를 늘릴 수 있습니다:
+1. **학생부 종합 평가**: 간호학과에서는 학생부 종합 평가도 중요한 요소입니다. 열심히 준비하고, 지원동기와 학업계획을 잘 작성해보세요.
+2. **면접 준비**: 면접에서도 좋은 성적을 받을 수 있도록 충분히 준비하세요.
+추가적으로 동의대학교 입학 홈페이지나 채널을 통해 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7476570010185242</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 일반적으로 높은 경쟁률을 보이며, 평균적인 입학성적이 상대적으로 높습니다.
+다음은 간호학과의 몇 가지 특징입니다:
+1. **경쟁률**: 제공된 데이터에 따르면 간호학과의 경쟁률이 6.59에서 37.69까지 다양하게 나타나고 있습니다. 이는 매우 높은 경쟁률을 의미합니다.
+2. **평균 입학성적**: 대부분의 학과와 마찬가지로 간호학과에서도 수능 성적이 중요한 요소입니다. 평균적으로 3.7의 정시 등급으로는 충분한 점수가 아닐 가능성이 높습니다.
+3. **전형별 특징**:
+   - **수능(일반학생전형)**: 이 전형에서는 수능 성적이 주요 평가 기준이므로 3.7의 등급은 경쟁력이 부족할 수 있습니다.
+   - **학생부종합**: 이 경우에는 학생부와 면접 등의 다양한 요소를 종합적으로 평가하므로, 좋은 학생부 성적과 적절한 면접 준비가 필요합니다.
+4. **추천 전형**:
+   - **평생학습자전형 / 성인학습자전형**: 이들 전형에서는 일반적인 수능 점수보다는 학생의 경험과 열정, 그리고 실무 능력이 더 중점을 두므로, 자신의 경력을 잘 준비한다면 가능성이 있습니다.
+   - **재직자전형**: 재직 경험이 있는 경우, 이 전형에서 경쟁력을 갖출 수 있습니다.
+5. **추천 사항**:
+   - **학생부 및 면접 준비**: 학생부를 잘 준비하고, 면접에서는 자신의 열정과 경험을 잘 표현할 수 있도록 준비해야 합니다.
+   - **추천서 활용**: 가능하다면 교사나 직장의 상사로부터 추천서를 받는 것도 도움이 될 수 있습니다.
+결론적으로 3.7의 정시 성적만으로 간호학과에 합격하기는 어렵지만, 다른 전형을 통해 경쟁력을 높일 수 있는 방법들이 있으므로 이를 고려해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6838445067405701</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2.58이라는 점수로 동의대학교 간호학과에 정시 전형으로 합격하기는 어렵다고 판단됩니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 2024년도 모집에서 지원 인원은 145명이고 모집 인원은 22명으로, 경쟁률이 6.59입니다. 이는 매우 높은 수준의 경쟁을 의미합니다.
+2. **성적 평균**: 최종 등록자들의 성적 평균은 357.63이며, 표준 편차가 5.37입니다. 이는 전체 지원자의 성적이 상당히 높게 분포되어 있다는 것을 의미합니다.
+3. **성적 기준**: 동의대학교 간호학과의 정시 모집에서는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 357.63이며, 이는 2.58보다 훨씬 높습니다.
+4. **표준 변환 점수**: 성적은 표준 변환 점수로 평가되므로, 같은 등급이라도 점수가 다르게 반영될 수 있습니다. 하지만 2.58이라는 점수는 매우 낮은 범위에 속합니다.
+따라서, 현재의 성적 상태에서 동의대학교 간호학과에 정시 전형으로 합격하기는 어렵다고 판단됩니다. 성적이 향상될 수 있는 방법을 찾아보거나 다른 대학이나 전형을 고려해 보는 것이 좋을 것 같습니다.
+추가적으로, 동의대학교 입학 홈페이지나 채널을 통해 최신 정보를 확인하거나, 학교 관계자와 상담하는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7601635456085205</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024년도 동일 학과 모집인원과 지원자 수를 확인해보겠습니다.
+- **게임공학과**:
+  - 정원 내 모집 인원: 3명
+  - 지원 인원: 16명
+경쟁률을 계산하면:
+\[ \text{경쟁률} = \frac{\text{지원 인원}}{\text{정원 내 모집 인원}} = \frac{16}{3} \approx 5.33 \]
+당신의 예비번호가 7번이라면, 경쟁률이 약 5.33입니다.
+**결론:**
+- 정원 내 모집인원은 3명이고 지원 인원이 16명이므로, 경쟁률이 높습니다.
+- 예비번호 7번으로는 충분히 합격 가능성이 있지만, 확실한 것은 아닙니다. 최종 합격자는 수능 점수와 서류 평가 등 다양한 요소를 종합적으로 고려하여 결정됩니다.
+추천 사항:
+1. **수능 성적을 최대한 높이세요**: 경쟁률이 높으므로, 수능 성적이 중요합니다.
+2. **서류 준비에 신경 써주세요**: 서류 평가에서도 좋은 점수를 받기 위해 노력하세요.
+3. **면접 준비도 철저히 하세요**: 면접에서도 좋은 인상을 남길 수 있도록 준비해보세요.
+더 궁금한 사항이 있으시다면, 학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.6287047266960144</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다.
+수능 성적이 4.16정도라면 평균적인 경쟁률을 고려할 때, 약간 낮은 점수로 보여집니다. 하지만 정시 전형의 경우 여러 요소가 작용하므로 정확한 예측은 어렵습니다. 
+다만, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **경쟁률**: 5.33이라는 경쟁률을 감안하면, 평균적인 지원자들보다 낮은 점수이기 때문에 충원 합격 가능성은 높아질 수 있습니다.
+2. **추가 합격 확률**: 일반적으로 경쟁률이 높은 모집단위에서 4.16정도의 성적을 가진 지원자는 추가 합격을 받을 가능성이 있습니다. 하지만 정확한 숫자는 알 수 없습니다.
+3. **전형 요소**: 게임공학과는 실기나 프로젝트 등 실무 능력이 중요한 역할을 하므로, 자기소개서와 면접 등의 전형요소에서 좋은 평가를 받는 것이 중요합니다.
+4. **추천서 및 추가 서류**: 추천서나 기타 추가 서류의 질도 합격 가능성에 영향을 줄 수 있습니다.
+따라서, 4.16정도의 성적을 가진 지원자가 게임공학과에서 추가 합격을 받을 확률은 높지만, 정확한 숫자는 알 수 없습니다. 최선을 다해 자기소개서와 면접 등 전형 요소를 준비하는 것이 중요합니다.
+추가로, 동의대학교 입학 홈페이지나 채널을 통해 가장 최신 정보를 확인하거나, 학교 관계자에게 직접 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do 를 참고하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.7636032104492188</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 모집단위의 경쟁률과 지원인원, 그리고 평균 점수 등을 고려해보겠습니다.
+주어진 예시에서 ICT융합공과대학 소프트웨어공학부의 최종등록자들의 성적 분포를 살펴봅시다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+이와 비교해보면, 경영정보학과의 정시 성적 3.75는 영어 등급 측면에서는 비슷하거나 약간 낮습니다.
+그러나 학교별로 지원자의 수와 경쟁률이 다르므로, 단순히 영어 점수만으로 판단하기보다는 다음과 같은 요소들을 종합적으로 고려해야 합니다:
+1. **전반적인 성적 평균**: 3.75는 평균 이상의 점수로 보입니다.
+2. **경쟁률과 지원인원**: 경영정보학과의 모집인원과 지원인원을 확인해보세요. 만약 지원 인원이 많다면, 경쟁률이 높아질 수 있습니다.
+3. **전공적합성**: 지원자의 전공적합성과 학업계획 등 서류평가 결과도 중요합니다.
+따라서, 정확한 답변을 위해서는:
+1. 2024학년도 경영정보학과의 모집인원과 지원인원을 확인해야 합니다.
+2. 해당 단과대학의 전반적인 평균 성적과 비교해볼 필요가 있습니다.
+만약 지원 인원이 많고 경쟁률이 높다면, 3.75는 최초 등록자로 선발될 가능성은 낮을 수 있습니다. 그러나 지원 인원이 적거나 경쟁률이 낮다면, 가능성이 있을 수 있습니다.
+추가적인 정보를 제공해주시면 더 정확한 답변을 드릴 수 있을 것 같습니다. 필요하다면, 입학처 홈페이지나 학교 관계자에게 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.7729097604751587</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도 경영정보학과의 최종 등록 자격에 대해 확인해보겠습니다.
+- **모집인원 및 지원 인원**: 경영정보학과는 모집 인원이 9명이며, 지원 인원은 95명으로 매우 높은 경쟁률을 보입니다.
+- **성적 평균**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 313.13이며, 영어 등급의 평균은 3.25입니다.
+- **성적 기준**: 성적이 4.2라면, 이는 상당히 높은 수준으로, 평균보다 훨씬 높습니다.
+따라서, 성적이 4.2인 경우 경영정보학과의 최초 등록자로 가능할 확률이 매우 높습니다. 그러나 정시모집의 경쟁률이 매우 높기 때문에, 다른 지원자의 성적과 서류 평가 결과에 따라 결정될 수 있습니다.
+**추천 사항:**
+1. **서류 준비**: 철저한 서류 준비와 학업역량, 전공적합성 등 면접평가 영역에서 높은 점수를 받을 수 있도록 노력하세요.
+2. **면접 준비**: 면접 질문 공통문항에 대해 잘 준비하고, 지원동기와 학업계획을 명확하게 설명할 수 있어야 합니다.
+이러한 조건들을 충족한다면 최초 등록자로 선발될 가능성이 높습니다. 그러나 확실한 결정은 입학사정관의 평가 결과에 따라 결정되므로, 최종 결과를 기다리는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.7915589809417725</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>5.33이라는 수능 점수는 상당히 높은 점수입니다. 동의대학교 경영정보학과의 경우, 2024년도 최종등록자들의 성적 분포를 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 313.13
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 5.75
+이 데이터를 바탕으로, 평균보다 약간 높은 점수인 5.33은 경쟁률과 충원 합격자 수를 고려할 때 합격 가능성은 있습니다.
+- 최종등록자의 지원 인원: 95명
+- 충원 합격 (후보순위): 33명
+이러한 데이터에서 볼 때, 평균보다 약간 높은 점수를 가진 지원자는 상대적으로 유리할 수 있습니다. 그러나 경쟁률이 매우 높기 때문에, 다른 요인들도 고려해야 합니다:
+1. **학생부 성적**: 수능 점수 외에도 학생부 성적이 중요합니다. 평균 308.58의 표준 변환 점수를 가진 지원자들이 있습니다.
+2. **면접 및 서류평가**: 경영정보학과는 면접과 서류평가가 포함되므로, 이 부분에서 좋은 성적을 받는 것이 중요합니다.
+3. **특기사항 및 활동**: 특기사항이나 활동이 있다면 이를 잘 활용해야 합니다.
+4. **전형요소 반영비율**: 수능 점수 50%와 학생부 50%로 구성되므로, 학생부 성적도 중요합니다.
+결론적으로, 5.33이라는 점수는 합격 가능성은 있지만, 경쟁률이 매우 높기 때문에 확실한 것은 아닙니다. 최선을 다해 준비하고, 면접과 서류평가에서도 좋은 결과를 얻어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.8182488679885864</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 수능(일반학생전형) 최종등록자의 성적 분포를 살펴보면 다음과 같습니다:
+- 모집단위: 바이오의약공학과, 식품공학과
+- 모집인원: 99명 (2023년도 모집인원)
+- 지원인원: 238명
+- 경쟁률: 2.40
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.86
+- 영어 등급의 평균: 4.53
+이러한 데이터를 바탕으로, 성적 3.33은 대략 3등급 정도로 추정됩니다.
+바이오응용공학부의 최종등록자들의 성적 분포는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.86
+- 이 값은 약 3.0 등급을 의미합니다.
+따라서, 성적 3.33은 약 3등급으로, 최종등록자들의 평균 성적(약 3.0)보다 약간 높습니다. 그러나 경쟁률이 2.40인 만큼, 지원 인원이 많아서 여전히 낮은 등급의 학생들도 충원될 수 있습니다.
+결론적으로, 성적이 약간 높으므로 가능성이 있지만, 확실한 것은 아닙니다. 경쟁률과 지원 인원이 많은 만큼, 최종등록자들 중에서도 3.0 등급 이하의 학생들이 있을 수 있으므로, 여전히 낮은 가능성은 있습니다.
+추천 사항:
+1. 다른 전형(예: 실기/실적 위주 전형)을 고려해보세요.
+2. 지원 가능성이 높은 모집단위를 확인하고 지원하세요.
+3. 추가적으로 면접 준비를 철저히 하세요.
+최종 결정을 내리기 위해서는 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.7916743755340576</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서 방사선학과에 지원하려면 몇 가지 정보가 필요합니다:
+1. **방사선학과의 모집단위와 전형**: 방사선학과는 어떤 단과대학에 속하는지, 그리고 해당 학과는 일반학생전형을 통해 모집하고 있는지 확인해야 합니다.
+2. **성적 평균 등급**: 방사선학과가 요구하는 최소 등급 기준은 무엇인지 알아보세요. 일부 대학에서는 특정 과목의 등급이 필요하거나, 전체 성적이 일정 수준 이상이어야 한다는 등의 조건을 두고 있을 수 있습니다.
+3. **수능 반영 영역**: 방사선학과가 수능에서 어떤 영역을 중점적으로 평가하는지 확인해야 합니다. 일반적으로 과학이나 수학 등 관련 분야의 성적이 중요할 수 있습니다.
+4. **모집인원 및 경쟁률**: 해당 학과의 모집인원과 지원 인원, 그리고 현재의 경쟁률을 파악하여 자신의 입학 가능성을 판단해 보세요.
+5. **추천서나 면접 등 추가 요건**: 일부 전형에서는 추천서 작성이나 면접 등의 추가 절차가 필요할 수 있으므로 이에 대한 준비도 필요합니다.
+현재 제시된 정보만으로는 방사선학과에 지원 가능성을 정확히 판단하기 어렵습니다. 하지만 일반적으로 4.4등급은 좋은 성적이며, 대부분의 학과에서는 충분한 경쟁력을 갖추고 있을 것입니다. 
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 또한, "https://ipsi.deu.ac.kr/main.do" 링크에서 더 많은 정보를 확인하실 수 있습니다.
+추가적으로, 방사선학과에 지원하기 위해 필요한 자세한 조건이나 추가 서류 등은 해당 대학 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6320109367370605</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높고, 충원 합격자는 5명으로 제한되어 있습니다. 지원 인원이 36명이므로 경쟁이 매우 치열합니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 341.62이며, 표준 편차는 9.80입니다. 이 데이터를 바탕으로 볼 때, 2.66이라는 점수는 평균보다 약간 낮습니다.
+이 점수로 지원한다면 다음과 같은 위험성을 고려해야 합니다:
+1. **경쟁률이 높음**: 경쟁률이 7.20이고 충원 인원이 제한적이므로, 점수가 조금이라도 낮으면 탈락할 가능성이 큽니다.
+2. **표준 편차 고려**: 표준 편차가 9.80으로 높기 때문에, 평균보다 약간 낮은 점수라도 다른 지원자들 중에서는 상대적으로 낮을 수 있습니다.
+3. **전형 요소 반영 비율**: 전형요소 반영비율이 학생부교과 18% + 출결 12% + 서류(실적) 70%로, 실적 부분이 큰 비중을 차지하고 있습니다. 따라서 실적 측면에서 준비가 필요합니다.
+4. **전형 요소**: 학생부교과와 실적의 중요성이 높으므로, 이 부분에 대한 준비를 철저히 해야 합니다.
+따라서 2.66이라는 점수로는 위험이 있습니다. 최대한 실적을 강화하고, 학생부 교과성적도 향상시켜 보는 것이 좋습니다. 또한 면접에서도 좋은 성적을 받기 위해 준비를 해야 합니다.
+추가적으로, 입학사정관의 평가와 서류평가에서 좋은 점수를 얻기 위한 준비도 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7930186986923218</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 답변을 드리기 위해서는 몇 가지 추가 정보가 필요합니다:
+1. **학교별 정원외 최종 등록자 추가 제출서류 유형**: 6년 과정인지 12년 과정인지 확인해야 합니다. 이에 따라 고교 졸업증명서, 지원자 본인, 부모 초본 등의 요구사항이 다릅니다.
+2. **동점자 처리 기준**: 순위가 1위인 동점자 처리기준은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자입니다. 이 중 어느 항목이 강점을 가지고 있는지 확인해야 합니다.
+3. **면접 평가**: 경찰행정학전공의 경우 면접 평가가 중요한 요소일 수 있습니다. 학생부교과 성적이 높은 분야와 관련된 경험이나 열정을 잘 보여줄 수 있어야 합니다.
+4. **학생부 교과성적 반영방법**: 2024학년도에는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이 반영됩니다.
+5. **면접 평가 점수**: 학생부종합 전형의 경우 면접 평가에서 합격을 위한 최소 점수가 있습니다. 예를 들어, 나군 학생부종합(평생학습자전형)에서는 학업역량 1등급 (166.5점 이상), 전공적합성 2등급 (102점 이상)이 필요합니다.
+현재 정보만으로는 확실한 답변을 드릴 수 없습니다. 하지만 성적이 꽤 높은 편이고, 학생부와 면접에서 좋은 평가를 받았다면 합격 가능성은 있습니다. 
+추가적으로, 해당 대학의 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하시면 더 정확한 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.7575143575668335</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 하지만 붙을 가능성이 완전히 없는 것은 아닙니다. 여러 요인들이 결과에 영향을 미칩니다:
+1. 모집 인원과 지원자 수: 현재 정보만으로는 정확한 비율을 계산하기 어렵습니다.
+2. 경쟁률: 다른 지원자의 성적과 경쟁률이 중요합니다. 
+3. 전형 방식: 실기, 면접 등 추가 평가 요소도 고려해야 합니다.
+4. 학교의 선발 정책: 일부 대학은 최저 점수 이하에도 특별한 사유로 합격을 주기도 합니다.
+5. 개인적 성장 기회: 입학 후 성장 가능성도 중요한 평가 요소일 수 있습니다.
+따라서, 확실한 답변보다는 긍정적인 태도를 가지고 준비하는 것이 중요합니다. 추가 정보(모집 인원, 지원자 수 등)를 얻어 분석해보시고, 필요하다면 학교에 문의하시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.7840628027915955</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에서 평균 성적을 예측하기는 어렵지만, 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. **전형별 성적 요구**:
+   - **나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 이 전형은 서류와 면접을 중점으로 하므로, 평균적인 교과 성적이 3등급 내외라면 안정적으로 합격할 수 있습니다.
+   - **가군 학생부교과(농어촌학생전형)**: 농어촌 학생 전형은 특별한 지원 요건이 있으므로, 평균 교과 성적이 3등급 내외라면 안정적으로 합격할 수 있습니다.
+   - **다군 정시모집**: 이 전형은 실기와 실적을 중점으로 하므로, 실기 점수가 높다면 합격 가능성이 큽니다.
+2. **전반적인 성적 평균**:
+   - 2023년도 동의대학교 법경찰행정학부의 정시 모집에서 일반적으로 3등급 내외의 교과 성적이 안정권으로 간주되었습니다.
+   - 특히, 나군 학생부종합 전형에서는 평균 3.5등급 이상이면 안정적인 수준입니다.
+3. **추세 분석**:
+   - 최근 몇 년간의 입학 성적 추세를 살펴보면, 법경찰행정학부는 경쟁률이 높아지면서 평균 성적이 상승하는 추세를 보이고 있습니다.
+   - 따라서 2024년에도 비슷한 수준의 성적을 유지하거나 약간 더 높은 성적을 목표로 설정하는 것이 좋습니다.
+4. **추천 성적**:
+   - **안정권**: 평균 3등급 내외 (예: 국어 2, 영어 2, 수학 3 등)
+   - **문 닫고 들어갈 수 있는 수준**: 평균 3.5등급 이상 (예: 국어 2, 영어 2, 수학 3.5 등)
+결론적으로, 법경찰행정학부에 정시로 들어가려면 평균 3등급 내외의 성적을 유지하는 것이 안정적인 수준이며, 3.5등급 이상이면 문 닫고 들어갈 수 있는 수준입니다. 하지만 최종 결정은 입학사정관들의 판단과 경쟁률에 따라 변동될 수 있으므로, 가능한 한 높은 성적을 목표로 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.6904469728469849</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급을 가지고 동의대학교 보육가정상담학과에 지원한다면, 합격 가능성은 낮을 것으로 예상됩니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 보육가정상담학과는 일반적으로 높은 경쟁률을 보입니다. 2024년도 모집에서 지원자 수와 모집 인원의 비율을 보면, 경쟁률이 매우 높습니다.
+2. **성적 평균**: 제공된 데이터를 통해 보육가정상담학과의 성적 평균을 확인할 수 있습니다. 예를 들어, 2024년도 상경대학 경영학과의 경우, 지원 인원 65명 중 충원 합격자는 23명으로, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 416.53입니다.
+3. **성적 등급**: 5.33이라는 등급은 대체로 중간에서 조금 높은 수준이지만, 이는 특정 과목별 등급을 의미합니다. 전체 성적이 416.53보다 낮다면 합격 가능성은 낮아집니다.
+4. **전형 방식**: 동의대학교는 다양한 전형 방식을 사용하며, 특히 수능 성적과 학생부 성적을 종합적으로 평가합니다. 따라서 단순히 등급만으로 판단하기보다는 전체적인 성적과 지원자의 경쟁력을 고려해야 합니다.
+결론적으로 5.33이라는 등급만으로는 보육가정상담학과에 합격하기 어렵다고 볼 수 있습니다. 그러나 최종 합격 여부는 여러 요인에 따라 달라질 수 있으므로, 정확한 판단을 위해서는 동의대학교의 전형 방식과 지원자의 전체 성적을 종합적으로 고려해야 합니다.
+추가 정보를 제공하거나, 더 자세한 조언이 필요하다면 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7560636401176453</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 여러 모집단위에 대한 정보를 제공하고 있습니다. 특히, 보육가정상담학과는 2023년도에는 보육가정상담학과였으나 2024년도에는 아동학과로 변경되었습니다.
+충원 합격 3차에서 예비 12번을 받았다면, 이는 아직 최종적으로 합격 여부가 결정되지 않은 상태입니다. 일반적으로 충원 합격 후에도 추가적인 합격자 발표와 등록이 이루어질 수 있으므로, 다음 단계의 합격자 발표를 기다리는 것이 좋습니다.
+추가적인 정보:
+- 2024학년도 동의대학교는 여러 모집단위에 대한 충원 합격자를 계속 발표하고 있습니다.
+- 각 모집단위별로 추가 합격자가 발표될 수 있으므로, 홈페이지를 주기적으로 확인하는 것이 중요합니다.
+따라서, 현재 예비 12번을 받았다면 최종 합격 여부는 다음의 합격자 발표와 등록 과정에서 결정됩니다. 입학안내 홈페이지를 통해 공식 정보를 확인하시고, 필요하다면 학교에 직접 문의하는 것이 좋습니다.
+추가적으로, 동의대학교의 전형일정을 참고하여 각 단계별로 진행되는 일정을 체크해보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.9095655679702759</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 영어 등급은 비교적 높은 점수입니다. 하지만 정시 모집에서 합격 여부는 단순히 영어 등급만으로 결정되는 것이 아닙니다. 다음과 같은 요소들을 고려해야 합니다:
+1. **전체 성적 평균**: 4개 영역의 평균 점수가 중요합니다. 4.75라는 높은 영어 등급이 다른 영역에서도 좋은 성적을 보여주고 있다면, 합격 가능성은 높아집니다.
+2. **수능 표준 변환 점수**: 수능의 표준 변환 점수가 평균 이상이라면 이점이 있습니다. 예를 들어, 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 높다면 이는 긍정적입니다.
+3. **경쟁률**: 유아교육과의 경쟁률을 고려해야 합니다. 4.60이라는 경쟁률은 상대적으로 낮지만, 여전히 다른 학생들과的竞争率相对较低，但仍然需要与其他考生竞争。因此，仅凭4.75的英语等级并不能完全确定能否被幼儿教育学专业录取。还需要考虑其他因素，如整体成绩、各科目的标准转换分数以及该专业的具体招生情况。
+如果想提高被录取的机会，建议：
+1. 确保所有科目都有良好的表现。
+2. 准备充分参加面试和其他可能的选拔环节。
+3. 关注学校发布的最新信息和要求。</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.7783010005950928</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에서 보육·가정상담학과의 경우, 2023년도에는 보육가정상담학과였습니다. 하지만 2024년도에 학과 명칭이 변경되었을 가능성이 있습니다. 현재 정보로는 2024년도에도 보육가정상담학과라는 이름으로 운영될 것으로 추정됩니다.
+현재의 정시모집에서 보육·가정상담학과의 모집인원, 지원자 수, 경쟁률 등을 고려해보겠습니다:
+- 모집 인원: 20여명 정도
+- 지원 인원: 약 150명 정도
+경쟁률은 대략 7.5:1 정도로 예상됩니다.
+현재의 등급인 4.16을 가지고 경쟁률이 7.5:1인 학과에 합격할 확률은 상당히 낮습니다. 평균적인 수능등급을 보면, 보육·가정상담학과는 대략 3.8~4.0 정도의 등급을 요구하는 경향이 있습니다.
+하지만, 정시모집에서는 다양한 요소들이 고려되므로 완전히 배제할 수는 없습니다. 학생부 평가, 면접 성적 등을 잘 준비한다면 일부 경우에선 가능성이 있을 수 있습니다.
+추천 드리는 것은:
+1. **학생부 및 면접 준비**: 학생부와 면접에서 좋은 평가를 받을 수 있도록 충분히 준비하세요.
+2. **다양한 전형 시도**: 다른 전형(예: 특기자, 실기 등)에서도 지원해보는 것이 좋습니다.
+3. **정보 확인**: 동의대학교 입학처 웹사이트나 채널을 통해 최신 정보를 확인하시고, 필요하다면 합격 가능성을 물어볼 수 있습니다.
+최종적으로는 입학사정관들의 평가와 면접 성적 등이 결정적인 역할을 하므로, 철저한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7688800096511841</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프RT. 융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다:
+1. **모집단위 및 모집인원**: 
+   - 단과대학: ICT공과대학
+   - 모집단위: 소프트웨어융합학과
+   - 모집 인원: 7명
+2. **수능 반영 영역**:
+   - 국어, 수학, 영어, 탐구 등급을 반영합니다.
+   - 특히 수학은 중요하며, 가산점도 있습니다.
+3. **경쟁률 및 평균 등급**:
+   - 2024학년도 최종등록자에서의 경쟁률은 15:1입니다 (지원 인원 146명, 모집인원 9명).
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 표준 편차는 9.08입니다.
+   - 영어 등급의 평균은 3.30이며, 표준 편차는 0.82입니다.
+4. **전형요소 반영비율**:
+   - 수능: 100%
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 점수를 받는 것이 유리할 것으로 보입니다:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 340~350점 정도
+- **영어 등급**: 최소 B등급 이상
+이러한 점수는 경쟁률과 평균 점수가 고려되었을 때 추정치이며, 실제 지원 결과는 다양한 요인에 따라 달라질 수 있습니다. 따라서 정확한 예측은 불가능하며, 개인의 실력과 준비 상태를 고려하여 목표 점수를 설정하는 것이 중요합니다.
+추가적으로, 입학사정관 면접 등 다른 평가 요소도 중요한 역할을 하므로, 전반적인 학업 성적과 활동 경력을 잘 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.6484797596931458</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히, 서류 평가는 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 평가되며, 세특 내용이 중요한 역할을 합니다.
+1. **면접 점수**: 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성에 대한 질문들이 제시됩니다. 답변의 정확성과 논리성이 중요합니다.
+2. **서류 평가**: 서류 평가는 다음과 같은 내용을 중심으로 이루어집니다.
+   - **공동체역량**: 협업능력, 나눔과 배려 등 공동체 활동에 대한 기록이 필요합니다.
+   - **학업역량**: 학업태도와 성취정도, 수업시간의 적극적 참여 등을 보여주는 내용이 중요합니다.
+   - **전공적합성**: 지원 전공(계열)과 관련된 활동 경험, 학업의지 등이 필요합니다.
+**서류 준비 시 주의사항:**
+- **진실성**: 서류에 기재한 내용은 반드시 진실적이어야 합니다. 허위사실을 기재하면 부정적 결과를 초래할 수 있습니다.
+- **상세한 설명**: 경험과 활동에 대한 세부적인 설명이 필요합니다. 단순히 '참여했다'는 것보다 구체적인 활동 내용과 그 결과를 설명하는 것이 좋습니다.
+**추천 준비 방법:**
+1. **활동 기록 정리**: 학교생활기록부와 동아리 활동, 진로 탐색 활동 등에 참여한 경험을 정리합니다.
+2. **성취도 확인**: 수업시간의 적극적 참여와 성과를 확인하고 이를 서류에 반영합니다.
+3. **목표 설정**: 지원 전공(계열)과 관련된 목표와 계획을 명확히 설정하여 서류에 포함시킵니다.
+이러한 준비가 충분하면, 소프트웨어융합학과의 입학 심사에서 좋은 평가를 받을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.50960373878479</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 ICT융합공과대학 소프트웨어공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+- **모집인원**: 30명
+- **지원 인원**: 146명
+- **경쟁률**: 4.87
+- **충원 합격 (후보순위)**: 63명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 330.11
+- **영어 등급의 평균**: 3.30
+이 정보를 바탕으로, 정시 성적이 4.08인 경우 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률과 모집 인원**:
+   - 경쟁률이 4.87이며, 모집 인원은 30명입니다.
+   - 이는 매우 높은 경쟁률을 보여주며, 충원 합격자 수가 63명으로 많은 지원자가 선발될 가능성이 있습니다.
+2. **평균 점수**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+   - 이는 지원자의 성적이 상당히 높은 편임을 나타냅니다.
+3. **성적 차이**:
+   - 정시 성적이 4.08인 경우, 평균 점수(330.11)보다 약간 낮습니다.
+   - 그러나 경쟁률이 매우 높고 모집 인원이 적기 때문에, 이 정도의 성적만으로는 충분히 합격할 수 있는 보장은 없습니다.
+4. **전반적인 입학 가능성**:
+   - 4.08이라는 점수는 상당히 좋은 성적이지만, 경쟁률과 모집 인원을 고려하면 여전히 높은 도전이 될 것입니다.
+   - 다른 지원자들 중에서도 동일한 수준의 성적을 가진 학생들이 많기 때문에, 충분히 가능하지만 확실하게 합격할 수 있는 보장은 없습니다.
+결론적으로, 정시 성적이 4.08인 경우 소프트웨어공학부에 최초합격하는 것은 매우 어렵지만, 여전히 가능성이 있습니다. 지원자는 다른 경쟁력을 갖추고 있어야 하며, 면접 등 추가 평가에서도 좋은 결과를 얻어야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참고하시거나 관계자에게 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8820871114730835</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프정시모집군에서 소프트웨어융합학과의 모집인원은 7명이며, 지원 인원이 146명으로 매우 높은 경쟁률을 보이고 있습니다. 평균 등급이 5등급으로는 충분히 합격 가능성이 낮아 보입니다.
+특히, 최종등록자와 최초합격자의 통계를 보면:
+- **최종등록자**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이며, 영어 등급의 평균은 3.77입니다.
+- **최초합격자**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 영어 등급의 평균은 3.30입니다.
+이러한 통계를 바탕으로 5등급을 기준으로 하면 경쟁률이 매우 높고, 합격 가능성은 낮아 보입니다. 하지만 최종적으로 결정되는 것은 개인의 성적과 입학사정관의 평가 등 다양한 요소에 따라 달라질 수 있으므로, 정확한 판단을 위해서는 본인의 실력과 경쟁자들의 실력을 꼼꼼히 분석하는 것이 중요합니다.
+추천되는 조치:
+1. **개별 지원 전략**: 개인의 강점과 취약점을 파악하여 최적화된 지원 전략을 세우세요.
+2. **추가 학습**: 부족한 영역에 대한 추가 학습을 통해 성적을 향상시키는 것이 좋습니다.
+3. **면접 준비**: 면접에서도 좋은 평가를 받기 위해 충분히 준비하세요.
+입학사정관의 판단은 개인적인 요소도 고려하므로, 최선을 다해 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.6811438202857971</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학하기는 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 신소재공학과는 모집인원이 적지만 지원자가 많아 경쟁률이 높습니다. 예를 들어, 2024년도 모집에서 신소재공학과의 모집 인원은 56명이고 지원자는 81명으로, 경쟁률은 약 1.45입니다.
+2. **성적 분포**: 제공된 데이터에 따르면, 신소재공학과의 지원자의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 378.15이고 표준 편차는 21.81입니다. 이는 4.28이라는 성적보다 높습니다.
+3. **등급 분포**: 수능 영역별 등급의 평균도 상대적으로 높습니다. 예를 들어, 수능 4개 영역 등급의 평균은 5.78이고 표준 편차는 0.49입니다.
+따라서, 4.28이라는 성적을 가지고 신소재공학과에 진학하기 위해서는 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **추천서나 자기소개서**: 강한 학업 의지와 전공 적합성을 보여줄 수 있는 추천서나 자기소개서를 준비할 수 있습니다.
+2. **면접 준비**: 면접에서도 자신의 열정과 목표를 잘 표현하고, 전공에 대한 깊은 이해도를 보여줄 수 있어야 합니다.
+3. **추가 지원 자격**: 재직자전형이나 평생학습자전형 등 다른 학생부 종합 전형을 고려해볼 수도 있습니다.
+4. **대학별 특성화 프로그램**: 일부 대학에서는 특정 분야에 관심이 있는 학생들을 위해 특별한 프로그램을 운영하고 있을 수 있으므로, 이에 대한 정보를 확인해보세요.
+결론적으로, 4.28이라는 성적만으로는 신소재공학과에 진학하기 어렵지만, 다양한 방법을 통해 지원 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.8051321506500244</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 수능 일반학생전형에서는 자기소개서 작성은 요구되지 않습니다. 
+주요 특징:
+1. **수능 점수 중심**: 주로 수능 국어, 수학, 영어 등급 및 탐구 과목 점수가 반영됩니다.
+2. **실기/실적 제출 없음**: 디자인조형학과나 체육학과와 같은 실기 전형이 아닌 경우, 자기소개서는 필요하지 않습니다.
+만약 특정 학과가 자기소개서를 요구한다면 해당 학과의 공지사항을 확인해야 합니다. 하지만 일반적으로 인문사회과학대학, 상경대학 등에서 수능 일반학생전형으로 지원할 때는 자기소개서 작성은 필요하지 않습니다.
+자세한 내용은 입학처 홈페이지나 해당 대학의 입학 안내 사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.6806612610816956</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 정시 모집에서 수능 점수가 4.5를 받았다면, 충원 합격 (후보순위) 정보와 지원한 단과대학 및 모집단위에 따라 가능성을 판단해야 합니다.
+1. **모집 인원과 지원 인원**: 지원한 단과대학과 모집단위의 모집 인원과 지원 인원을 확인하세요. 예를 들어, 한의예과 수학(확률과통계) 응시자의 경우 모집 인원이 3명이고 지원 인원이 21명이라면 경쟁률은 높아서 충원 합격 가능성은 낮습니다.
+2. **경쟁률**: 지원한 단과대학 및 모집단위의 경쟁률을 확인하세요. 경쟁률이 높다면, 추가모집에서도 충원 합격하기는 어렵습니다.
+3. **충원 합격 (후보순위)**: 지원한 단과대학 및 모집단위에서 충원 합격 (후보순위) 정보를 확인하세요. 만약 해당 모집단위의 충원 합격자 수가 많다면, 후보 순위에 오르기 어렵습니다.
+4. **추가모집**: 추가모집이 열릴 경우, 추가모집에서도 점수가 높은 지원자가 선발될 가능성이 있습니다. 따라서 추가모집을 신청하는 것이 좋습니다.
+5. **성적 분석**: 지원한 단과대학 및 모집단위의 평균 성적과 표준 편차를 확인하여 자신의 성적이 어느 수준인지 판단하세요. 예를 들어, 한의예과 수학(미적분/기하) 응시자의 경우 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균이 396.29이고 표준 편차가 0.68이라면, 자신의 성적이 평균보다 낮다면 추가모집에서도 충원 합격하기는 어렵습니다.
+추가로, 동의대학교 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 추가모집 관련 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8022361993789673</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)에 대한 정보를 바탕으로 추론해보겠습니다.
+1. **모집단위와 지원 인원**: 신소재공학과는 모집인원이 56명이며, 지원 인원은 81명입니다.
+2. **경쟁률**: 경쟁률은 1.45입니다 (81 / 56 = 1.446).
+이 정보를 바탕으로 추정해보면:
+- **경쟁률 1.45**는 상대적으로 낮은 수준입니다.
+- 이 경쟁률을 고려할 때, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **271.64**이고, 표준 편차는 **19.52**입니다.
+이러한 경쟁률과 성적 분포를 고려할 때, 대략적으로 300점대 중반에서 320점대 초반까지의 점수면 합격 가능성이 높아 보입니다. 그러나 정확한 등급은 해당년도의 수능 성적 분포와 모집인원, 지원 인원 등을 고려해야 하므로, 최종 결정을 위해서는 동의대학교 입학처 웹사이트나 공식 안내서를 확인하는 것이 가장 정확할 것입니다.
+추천: [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7229275107383728</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시 최종 등록자 중 신소재공학과의 경우, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균이 447.86점으로 기재되어 있습니다.
+당신이 환산된 표준 점수가 447점이라면, 작년보다 약간 낮은 수치입니다. 하지만 정시 모집에서 최종 등록자들의 성적 분포는 여러 요인에 따라 변동될 수 있으며, 작년과 동일한 경쟁률이나 모집 인원이 아닌 다른 조건들로 인해 가능성이 있습니다.
+따라서 다음과 같은 점들을 고려해야 합니다:
+1. 모집 인원 및 지원 인원의 변화: 작년과 비교했을 때 모집 인원 또는 지원 인원이 달라졌다면, 경쟁률이 변동될 수 있습니다.
+2. 입학사정관 심사 결과: 서류평가와 면접 평가에서의 성적 차이가 있을 수 있습니다.
+3. 학생들의 성적 분포 변화: 작년과 비교했을 때 전체 지원자의 성적이 달라졌다면, 표준 점수가 변동될 수 있습니다.
+결론적으로, 작년보다 약간 낮은 447점으로 환산되더라도 가능성이 있지만 확실한 것은 아닙니다. 동의대학교 입학사정관들의 평가 결과와 전체 지원자의 성적 분포에 따라 결정될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.775263786315918</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면, 동의대학교의 신소재공학과에 지원할 때 합격 가능성은 낮지만 아직 불가능한 것은 아닙니다. 동의대학교의 수능 전형성적 산출방법을 확인해 보겠습니다:
+- **수능 전형성적 산출방법**:
+  - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이 방법에 따라, 성적이 4.1~4.2로 변환되면:
+- **국어**: 대략 90점대
+- **수학**: 대략 85점대
+- **영어**: 4등급 (대략 115점)
+- **탐구**: 대략 30점
+이 점수들을 합산하면, 총점은 약 290~300점 정도가 됩니다. 
+신소재공학과의 모집인원을 확인해보면:
+- **모집단위**: 공과대학
+- **계열**: 공학
+- **모집인원**: 최대선발 가능인원 4 이내
+이러한 점수로 지원하면, 경쟁률이 매우 높은 상황에서 합격하기는 어렵지만, 아직 가능성은 있습니다. 
+**추천 사항:**
+1. **추가 지원 자료 준비**: 서류평가 영역을 강화하여 평가를 받을 수 있도록 합니다.
+2. **면접 준비**: 면접에서도 좋은 성적을 보여줄 수 있도록 준비합니다.
+3. **교사 추천서 및 자기소개서 작성**: 교사 추천서와 자기소개서에서 자신의 장점을 잘 표현할 수 있도록 합니다.
+결국, 최종 합격 여부는 여러 요인에 따라 결정되므로, 추가 지원 자료와 면접 준비를 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.8626807928085327</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최초합격자와 최종등록자의 성적을 요약하면 다음과 같습니다:
+- **최초합격자**:
+  - 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 301.87
+  - 영어 등급 평균: 4.13
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 415.80
+- **최종등록자**:
+  - 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 293.11
+  - 영어 등급 평균: 4.53
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 403.85
+이 성적은 2024년도에 해당하므로, 현재의 성적이 이를 충족하는지 확인하기 위해서는 최근의 성적을 가지고 있어야 합니다. 또한 수능 성적 외에도 면접 등 다른 평가 요소들도 고려됩니다.
+만약 현재 성적이 이보다 낮다면, 추가 학습과 준비가 필요할 수 있습니다. 동의대학교의 공식 웹사이트나 입학처에 문의하여 최신 정보와 지원 방법을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.871373176574707</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 성적이 어느 학과에 지원할지, 그리고 해당 학과의 모집인원과 경쟁률 등을 고려해야 정확한 답변을 드릴 수 있습니다.
+현재 제공된 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적 평균**: 
+   - 대부분의 단과대학에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 300-450 사이입니다.
+   - 예를 들어, 외식경영학과는 평균이 261.30이고, 한의예과(수학&lt;미적분/기하&gt;)는 평균이 399.33입니다.
+2. **경쟁률**:
+   - 경쟁률은 매우 중요한 요소로, 경쟁률이 높은 학과에서는 낮은 점수가 충분히 합격하기 어렵습니다.
+   - 예를 들어, 외식경영학과는 4.83의 경쟁률을 보이고 있습니다.
+3. **개인 성적**:
+   - 5.27이라는 수능 성적은 상당히 높은 점수입니다. 이 점수로는 많은 학과에서 충분한 경쟁력을 갖추고 있을 것입니다.
+4. **학과 선택**:
+   - 수능 성적이 높다면, 경쟁률이 낮은 학과를 우선적으로 고려해볼 만합니다.
+5. **전형별 차이**:
+   - 일반학생전형, 평생학습자전형 등 다양한 전형이 있으므로, 지원할 전형을 정확히 알 필요가 있습니다.
+추천 사항:
+1. **경쟁률이 낮은 학과**: 
+   - 예를 들어, 외식경영학과(4.83 경쟁률)나 식품영양학과(2.17 경쟁률) 등에서 충분한 가능성 있을 수 있습니다.
+2. **수능 성적 평균이 낮은 학과**:
+   - 예를 들어, 외식경영학과(평균 261.30), 식품영양학과(평균 256.84) 등에서 충분한 가능성 있을 수 있습니다.
+추가 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다. 필요하다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.7917307019233704</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 소프트웨어공학부에 지원하려면, 정시 모집군과 성적이 중요한 요소가 됩니다.
+1. **정시모집군**: 
+   - 소프트웨어공학부는 주로 가군이나 나군으로 모집됩니다.
+   - 가군의 경우, 수능 반영비율이 25%이고, 나머지 75%는 학생부 교과성적입니다.
+   - 나군의 경우, 수능 반영비율이 60%이며, 나머지 40%는 학생부 교과성적입니다.
+2. **성적**: 
+   - 동의대학교 소프트웨어공학부의 성적 기준을 보면, 정시모집군별로 다음과 같습니다:
+     - 가군: 수능 반영비율이 25%이므로, 수능 점수가 중요하지만 학생부 교과성적이 더 큰 비중을 차지합니다.
+     - 나군: 수능 반영비율이 60%이므로, 수능 성적은 매우 중요합니다.
+3. **성적 평균**: 
+   - 동의대학교 소프트웨어공학부의 정시모집군별 성적 평균을 보면:
+     - 가군: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+     - 나군: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+4. **성적 비교**:
+   - 동의대학교 소프트웨어공학부의 정시모집군별 성적 평균을 고려할 때, 4.2는 상대적으로 낮은 점수로 보입니다.
+   - 가군에서는 317.87보다 낮고, 나군에서는 330.11보다도 낮습니다.
+5. **학생부 교과성적**:
+   - 동의대학교는 학생부 교과성적이 중요하므로, 4.2라는 성적은 학생부 교과성적을 매우 높게 유지해야 합니다.
+   - 특히, 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받는 것이 필요합니다.
+6. **추천**:
+   - 4.2라는 성적만으로 소프트웨어공학부에 확실하게 합격하기는 어렵습니다.
+   - 그러나, 학생부 교과성적이 매우 높다면 (예: 국어 90점 이상, 수학 85점 이상 등) 일부 경쟁률이 낮은 모집단위에서는 가능성이 있을 수 있습니다.
+결론적으로, 4.2라는 성적만으로는 소프트웨어공학부에 확실하게 합격하기 어렵지만, 학생부 교과성적이 매우 높다면 일부 경쟁률이 낮은 모집단위에서는 가능성이 있을 수 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나 전화로 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6914567947387695</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92 등급으로 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집인원 및 경쟁률**: 해당 학과의 정원 내 모집 인원과 지원 인원을 확인해야 합니다. 예를 들어, 특정 학과가 30명을 모집하고 200명이 지원한다면 경쟁률은 매우 높을 것입니다.
+2. **성적 평균 및 표준편차**: 제공된 데이터에서 해당 학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균과 표준 편차를 확인해야 합니다. 이 정보는 3.92 등급이 얼마나 높은지 판단하는 데 도움이 됩니다.
+3. **등급별 점수**: 제공된 데이터에서 영어 등급의 평균 및 표준 편차, 수능 4개 영역 등급의 평균 및 표준 편차를 확인해야 합니다. 이 정보는 전체 성적 분포와 비교하여 3.92 등급이 어느 위치에 있는지 판단하는 데 도움이 됩니다.
+4. **전형별 모집인원**: 해당 학과의 정시모집군(가, 나, 다) 및 각 전형별 모집 인원을 확인해야 합니다.
+5. **성적 산출방법**: 성적 산출 방식에 따라 3.92 등급이 어느 영역에서 얼마나 반영되는지 확인해야 합니다.
+### 예시 분석
+1. **화학공학과**:
+   - 정원 내 모집 인원: 62명
+   - 지원 인원: 43명 (경쟁률은 낮음)
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 510.87
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 34.69
+2. **환경공학과**:
+   - 정원 내 모집 인원: 36명
+   - 지원 인원: 29명 (경쟁률은 낮음)
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 481.70
+   - 국어 + 수_mathematical_expression_ + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 6.87
+3. **응용화학과**:
+   - 정원 내 모집 인원: 31명
+   - 지원 인원: 0명 (경쟁률은 매우 낮음)
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 475.86
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 13.09
+### 결론
+- **화학공학과**: 평균이 510.87이고 표준 편차가 34.69인 경우, 3.92 등급은 상대적으로 높은 점수로 보입니다.
+- **환경공학과**: 평균이 481.70이고 표준 편차가 6.87인 경우, 3.92 등급도 상대적으로 높은 점수로 보입니다.
+- **응용화학과**: 지원 인원이 없으므로 경쟁률이 매우 낮습니다.
+따라서, 3.92 등급으로 화학환경공학부의 일반학생전형에 지원 가능할 것으로 보입니다. 그러나 최종 결정은 해당 학과의 정확한 모집인원 및 지원 인원을 확인하여 경쟁률을 판단해야 합니다.
+추가 정보를 제공해 주시면 더 구체적인 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.7398734092712402</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 화학환경공학과에 지원하시려면, 수능(일반학생전형)을 통해 지원할 수 있습니다. 하지만 정시모집에서 성적 4.25를 받으셨다면, 일반학생전형에서도 유리한 입지는 어렵지 않을 것입니다.
+수능(일반학생전형)의 경우 다음과 같은 점들을 고려해야 합니다:
+1. 모집단위와 지원 인원: 화학공학과, 환경공학과, 응용화학과 중에서 선택 가능합니다.
+2. 경쟁률: 1.21~3.72 사이로 비교적 낮은 편입니다.
+3. 성적 평균 및 표준편차:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 269.13~429.96
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 377.52~538.33
+당신의 성적 4.25는 이 범위 내에 들어갑니다만, 경쟁률과 지원 인원 등을 고려하면 조금 높은 편입니다.
+추천 사항:
+1. 다른 모집단위(예: 환경공학과)도 함께 지원해보세요.
+2. 실기/실적 전형을 고려해볼 수 있습니다.
+3. 학생부 종합전형 등 다른 전형을 검토해보세요.
+결론적으로, 가능하지만 경쟁이 치열할 수 있으므로 다양한 전형을 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.7299638390541077</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 수능 등급은 상당히 좋은 점수입니다. 하지만 영화학과의 경쟁률과 모집인원, 그리고 다른 지원자의 수능 성적을 고려해야 합니다.
+1. **경쟁률**: 영화학과의 경쟁률이 2.20으로 비교적 낮습니다.
+2. **모집인원**: 5명입니다.
+3. **지원자 수**: 11명입니다.
+4.2 등급은 평균 이상의 성적이므로, 이 점수로 합격 가능성은 높아 보입니다. 하지만 다른 지원자의 성적과 서류평가 결과를 고려해야 합니다.
+**추천 사항:**
+- **서류 준비**: 서류평가에서 좋은 점수를 받을 수 있도록 충분히 준비하세요.
+- **면접 준비**: 면접에서도 좋은 평가를 받기 위해 미리 준비해 두세요.
+- **추천서**: 가능하다면 선생님이나 관련 전문가의 추천서도 받아보세요.
+전반적으로 4.2 등급은 좋은 성적이라 합격 가능성은 높습니다. 하지만 최종 결정은 입학사정관들의 평가에 따라 달라질 수 있으므로, 최선을 다해 준비하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6923078298568726</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 형태에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9914212226867676</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7967973747849464</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7755482435226441</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.776777154803276</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7861728091537953</v>
+      <c r="D305" t="n">
+        <v>0.7830409243702888</v>
       </c>
     </row>
   </sheetData>
